--- a/bdb2023_gameplan.xlsx
+++ b/bdb2023_gameplan.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ubisoft.org\hubstudio\Teams\Analytics\Zac\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A153573E-230F-4507-93C5-8B23E96840D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08EFC8-F31F-4B88-BB63-01E61A20F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10320" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{0D449007-2A94-4BCE-AF8C-C52CEE08D53D}"/>
+    <workbookView xWindow="-10320" yWindow="10690" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{0D449007-2A94-4BCE-AF8C-C52CEE08D53D}"/>
   </bookViews>
   <sheets>
     <sheet name="To Do List" sheetId="7" r:id="rId1"/>
     <sheet name="Main Menu" sheetId="1" r:id="rId2"/>
-    <sheet name="Game Visuals" sheetId="2" r:id="rId3"/>
-    <sheet name="Game Mechanics" sheetId="5" r:id="rId4"/>
-    <sheet name="Offensive Line Up" sheetId="3" r:id="rId5"/>
-    <sheet name="Defensive Line Up" sheetId="4" r:id="rId6"/>
+    <sheet name="Offensive Line Up" sheetId="3" r:id="rId3"/>
+    <sheet name="Defensive Line Up" sheetId="4" r:id="rId4"/>
+    <sheet name="Game Visuals" sheetId="2" r:id="rId5"/>
+    <sheet name="Game Mechanics" sheetId="5" r:id="rId6"/>
     <sheet name="You vs Analytics" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Requirements:</t>
   </si>
@@ -49,9 +49,6 @@
     <t>User Team</t>
   </si>
   <si>
-    <t>CPU</t>
-  </si>
-  <si>
     <t>User Home or Away</t>
   </si>
   <si>
@@ -263,6 +260,18 @@
   </si>
   <si>
     <t>Interceptions</t>
+  </si>
+  <si>
+    <t>CPU Team</t>
+  </si>
+  <si>
+    <t>Could just be 'x' % of PB Blocks are Holding Penalties followed by RNG</t>
+  </si>
+  <si>
+    <t>Could just be 'x' % of Pressures split followed by RNG</t>
+  </si>
+  <si>
+    <t>Could just be 'x' % of Sacks split followed by RNG</t>
   </si>
 </sst>
 </file>
@@ -656,10 +665,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +721,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,20 +746,20 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -760,288 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFA3BAA-88B0-4D79-9651-11FFDA1D2ECB}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E8521-32EF-46D6-922E-EA57E489EB89}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BAC6A0-B671-4B22-9A4E-82B490C14765}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,102 +790,102 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9511652A-5FAB-47FD-B75D-DC7ABD3D83F0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1183,121 +915,407 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFA3BAA-88B0-4D79-9651-11FFDA1D2ECB}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E8521-32EF-46D6-922E-EA57E489EB89}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1321,18 +1339,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
